--- a/歴史１問題/歴史100.xlsx
+++ b/歴史１問題/歴史100.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mugisama/Desktop/HagiQ/歴史１問題/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB632408-5FA2-434A-8722-2CB25BBCAD1E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8602B21C-4294-1940-81BB-EAF548AC0C8B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="500" windowWidth="28300" windowHeight="15760" xr2:uid="{D500D79B-54E9-0B49-AC8E-65C860111E17}"/>
+    <workbookView xWindow="240" yWindow="500" windowWidth="28300" windowHeight="15720" xr2:uid="{D500D79B-54E9-0B49-AC8E-65C860111E17}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306" uniqueCount="305">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="311" uniqueCount="310">
   <si>
     <t>question</t>
     <phoneticPr fontId="1"/>
@@ -5485,6 +5485,110 @@
     </rPh>
     <rPh sb="30" eb="31">
       <t>ヨイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>61.福栄地域の大板山には、たたら製鉄の遺跡がある。ここで製鉄に使われた原料の砂鉄は、現在の何県から運ばれてきた？(120)</t>
+    <rPh sb="3" eb="7">
+      <t>フクエ</t>
+    </rPh>
+    <rPh sb="8" eb="11">
+      <t>オオイ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>イセキ</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>セイテテゥ</t>
+    </rPh>
+    <rPh sb="32" eb="33">
+      <t>ツカワレ</t>
+    </rPh>
+    <rPh sb="36" eb="38">
+      <t>ゲンリョウ</t>
+    </rPh>
+    <rPh sb="39" eb="41">
+      <t>サテテゥ</t>
+    </rPh>
+    <rPh sb="43" eb="45">
+      <t>ゲンザイ</t>
+    </rPh>
+    <rPh sb="46" eb="48">
+      <t>ナニケn</t>
+    </rPh>
+    <rPh sb="50" eb="51">
+      <t>ハコバレ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>島根県</t>
+    <rPh sb="0" eb="3">
+      <t>シマネ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>福岡県</t>
+    <rPh sb="0" eb="1">
+      <t>フクオカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>鳥取県</t>
+    <rPh sb="0" eb="3">
+      <t>トットリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>炉の中に砂鉄と木炭を投入し燃焼させ鉄を作っていたが、砂鉄は現在の島根県浜田市三隅町から北前船を利用し、奈古で搬入された。</t>
+    <rPh sb="0" eb="1">
+      <t>ロノナ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>サテテゥ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>モクタn</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ネンショウ</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t xml:space="preserve">テツ </t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>ツクッテイテ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>サテテゥ</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>ゲンザイ</t>
+    </rPh>
+    <rPh sb="32" eb="38">
+      <t>シマン</t>
+    </rPh>
+    <rPh sb="38" eb="41">
+      <t>ミスミ</t>
+    </rPh>
+    <rPh sb="43" eb="44">
+      <t xml:space="preserve">キタ </t>
+    </rPh>
+    <rPh sb="44" eb="46">
+      <t>マエ</t>
+    </rPh>
+    <rPh sb="47" eb="49">
+      <t>リヨウ</t>
+    </rPh>
+    <rPh sb="51" eb="53">
+      <t xml:space="preserve">ナゴ </t>
+    </rPh>
+    <rPh sb="54" eb="56">
+      <t>ハンニュウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -5532,9 +5636,12 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -5850,28 +5957,33 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3BE6E960-2441-804C-ABBD-145E11D63E31}">
-  <dimension ref="A1:F61"/>
+  <dimension ref="A1:F63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A41" workbookViewId="0">
-      <selection activeCell="F62" sqref="F62"/>
+    <sheetView tabSelected="1" topLeftCell="A57" workbookViewId="0">
+      <selection activeCell="A63" sqref="A63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
+  <cols>
+    <col min="1" max="1" width="90.5703125" customWidth="1"/>
+    <col min="2" max="4" width="22.5703125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="8.42578125" style="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
       <c r="F1" t="s">
@@ -5882,16 +5994,16 @@
       <c r="A2" t="s">
         <v>10</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E2">
+      <c r="E2" s="1">
         <v>3</v>
       </c>
       <c r="F2" t="s">
@@ -5902,16 +6014,16 @@
       <c r="A3" t="s">
         <v>11</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E3">
+      <c r="E3" s="1">
         <v>3</v>
       </c>
       <c r="F3" t="s">
@@ -5922,16 +6034,16 @@
       <c r="A4" t="s">
         <v>16</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="E4">
+      <c r="E4" s="1">
         <v>3</v>
       </c>
       <c r="F4" t="s">
@@ -5942,16 +6054,16 @@
       <c r="A5" t="s">
         <v>21</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="E5">
+      <c r="E5" s="1">
         <v>2</v>
       </c>
       <c r="F5" t="s">
@@ -5962,16 +6074,16 @@
       <c r="A6" t="s">
         <v>26</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D6" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="E6">
+      <c r="E6" s="1">
         <v>3</v>
       </c>
       <c r="F6" t="s">
@@ -5982,16 +6094,16 @@
       <c r="A7" t="s">
         <v>31</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D7" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="E7">
+      <c r="E7" s="1">
         <v>2</v>
       </c>
       <c r="F7" t="s">
@@ -6002,16 +6114,16 @@
       <c r="A8" t="s">
         <v>36</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C8" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D8" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="E8">
+      <c r="E8" s="1">
         <v>2</v>
       </c>
       <c r="F8" t="s">
@@ -6022,16 +6134,16 @@
       <c r="A9" t="s">
         <v>41</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C9" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="D9" t="s">
+      <c r="D9" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="E9">
+      <c r="E9" s="1">
         <v>1</v>
       </c>
       <c r="F9" t="s">
@@ -6042,16 +6154,16 @@
       <c r="A10" t="s">
         <v>46</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C10" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="D10" t="s">
+      <c r="D10" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="E10">
+      <c r="E10" s="1">
         <v>3</v>
       </c>
       <c r="F10" t="s">
@@ -6062,16 +6174,16 @@
       <c r="A11" t="s">
         <v>51</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C11" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="D11" t="s">
+      <c r="D11" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="E11">
+      <c r="E11" s="1">
         <v>2</v>
       </c>
       <c r="F11" t="s">
@@ -6082,16 +6194,16 @@
       <c r="A12" t="s">
         <v>56</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C12" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="D12" t="s">
+      <c r="D12" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="E12">
+      <c r="E12" s="1">
         <v>2</v>
       </c>
       <c r="F12" t="s">
@@ -6102,16 +6214,16 @@
       <c r="A13" t="s">
         <v>61</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C13" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="D13" t="s">
+      <c r="D13" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="E13">
+      <c r="E13" s="1">
         <v>3</v>
       </c>
       <c r="F13" t="s">
@@ -6122,16 +6234,16 @@
       <c r="A14" t="s">
         <v>66</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B14" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="C14" t="s">
+      <c r="C14" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="D14" t="s">
+      <c r="D14" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="E14">
+      <c r="E14" s="1">
         <v>2</v>
       </c>
       <c r="F14" t="s">
@@ -6142,16 +6254,16 @@
       <c r="A15" t="s">
         <v>71</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B15" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="C15" t="s">
+      <c r="C15" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="D15" t="s">
+      <c r="D15" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="E15">
+      <c r="E15" s="1">
         <v>2</v>
       </c>
       <c r="F15" t="s">
@@ -6162,16 +6274,16 @@
       <c r="A16" t="s">
         <v>76</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B16" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="C16" t="s">
+      <c r="C16" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="D16" t="s">
+      <c r="D16" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="E16">
+      <c r="E16" s="1">
         <v>2</v>
       </c>
       <c r="F16" t="s">
@@ -6182,16 +6294,16 @@
       <c r="A17" t="s">
         <v>81</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B17" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="C17" t="s">
+      <c r="C17" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="D17" t="s">
+      <c r="D17" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="E17">
+      <c r="E17" s="1">
         <v>2</v>
       </c>
       <c r="F17" t="s">
@@ -6202,16 +6314,16 @@
       <c r="A18" t="s">
         <v>86</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B18" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="C18" t="s">
+      <c r="C18" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="D18" t="s">
+      <c r="D18" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="E18">
+      <c r="E18" s="1">
         <v>2</v>
       </c>
       <c r="F18" t="s">
@@ -6222,16 +6334,16 @@
       <c r="A19" t="s">
         <v>91</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B19" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="C19" t="s">
+      <c r="C19" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="D19" t="s">
+      <c r="D19" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="E19">
+      <c r="E19" s="1">
         <v>1</v>
       </c>
       <c r="F19" t="s">
@@ -6242,16 +6354,16 @@
       <c r="A20" t="s">
         <v>96</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B20" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="C20" t="s">
+      <c r="C20" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="D20" t="s">
+      <c r="D20" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="E20">
+      <c r="E20" s="1">
         <v>3</v>
       </c>
       <c r="F20" t="s">
@@ -6262,16 +6374,16 @@
       <c r="A21" t="s">
         <v>101</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B21" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="C21" t="s">
+      <c r="C21" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="D21" t="s">
+      <c r="D21" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="E21">
+      <c r="E21" s="1">
         <v>1</v>
       </c>
       <c r="F21" t="s">
@@ -6282,16 +6394,16 @@
       <c r="A22" t="s">
         <v>106</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B22" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="C22" t="s">
+      <c r="C22" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="D22" t="s">
+      <c r="D22" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="E22">
+      <c r="E22" s="1">
         <v>1</v>
       </c>
       <c r="F22" t="s">
@@ -6302,16 +6414,16 @@
       <c r="A23" t="s">
         <v>111</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B23" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="C23" t="s">
+      <c r="C23" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="D23" t="s">
+      <c r="D23" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="E23">
+      <c r="E23" s="1">
         <v>2</v>
       </c>
       <c r="F23" t="s">
@@ -6322,16 +6434,16 @@
       <c r="A24" t="s">
         <v>116</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B24" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="C24" t="s">
+      <c r="C24" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="D24" t="s">
+      <c r="D24" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="E24">
+      <c r="E24" s="1">
         <v>3</v>
       </c>
       <c r="F24" t="s">
@@ -6342,16 +6454,16 @@
       <c r="A25" t="s">
         <v>120</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B25" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="C25" t="s">
+      <c r="C25" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="D25" t="s">
+      <c r="D25" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="E25">
+      <c r="E25" s="1">
         <v>1</v>
       </c>
       <c r="F25" t="s">
@@ -6362,16 +6474,16 @@
       <c r="A26" t="s">
         <v>125</v>
       </c>
-      <c r="B26" t="s">
+      <c r="B26" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="C26" t="s">
+      <c r="C26" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="D26" t="s">
+      <c r="D26" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="E26">
+      <c r="E26" s="1">
         <v>2</v>
       </c>
       <c r="F26" t="s">
@@ -6382,16 +6494,16 @@
       <c r="A27" t="s">
         <v>130</v>
       </c>
-      <c r="B27" t="s">
+      <c r="B27" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="C27" t="s">
+      <c r="C27" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="D27" t="s">
+      <c r="D27" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="E27">
+      <c r="E27" s="1">
         <v>2</v>
       </c>
       <c r="F27" t="s">
@@ -6402,16 +6514,16 @@
       <c r="A28" t="s">
         <v>135</v>
       </c>
-      <c r="B28" t="s">
+      <c r="B28" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="C28" t="s">
+      <c r="C28" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="D28" t="s">
+      <c r="D28" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="E28">
+      <c r="E28" s="1">
         <v>1</v>
       </c>
       <c r="F28" t="s">
@@ -6422,16 +6534,16 @@
       <c r="A29" t="s">
         <v>140</v>
       </c>
-      <c r="B29" t="s">
+      <c r="B29" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="C29" t="s">
+      <c r="C29" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="D29" t="s">
+      <c r="D29" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="E29">
+      <c r="E29" s="1">
         <v>2</v>
       </c>
       <c r="F29" t="s">
@@ -6442,16 +6554,16 @@
       <c r="A30" t="s">
         <v>145</v>
       </c>
-      <c r="B30" t="s">
+      <c r="B30" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="C30" t="s">
+      <c r="C30" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="D30" t="s">
+      <c r="D30" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="E30">
+      <c r="E30" s="1">
         <v>2</v>
       </c>
       <c r="F30" t="s">
@@ -6462,16 +6574,16 @@
       <c r="A31" t="s">
         <v>150</v>
       </c>
-      <c r="B31" t="s">
+      <c r="B31" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="C31" t="s">
+      <c r="C31" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="D31" t="s">
+      <c r="D31" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="E31">
+      <c r="E31" s="1">
         <v>2</v>
       </c>
       <c r="F31" t="s">
@@ -6482,16 +6594,16 @@
       <c r="A32" t="s">
         <v>155</v>
       </c>
-      <c r="B32" t="s">
+      <c r="B32" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="C32" t="s">
+      <c r="C32" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="D32" t="s">
+      <c r="D32" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="E32">
+      <c r="E32" s="1">
         <v>2</v>
       </c>
       <c r="F32" t="s">
@@ -6502,16 +6614,16 @@
       <c r="A33" t="s">
         <v>160</v>
       </c>
-      <c r="B33" t="s">
+      <c r="B33" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="C33" t="s">
+      <c r="C33" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="D33" t="s">
+      <c r="D33" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="E33">
+      <c r="E33" s="1">
         <v>1</v>
       </c>
       <c r="F33" t="s">
@@ -6522,16 +6634,16 @@
       <c r="A34" t="s">
         <v>165</v>
       </c>
-      <c r="B34" t="s">
+      <c r="B34" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="C34" t="s">
+      <c r="C34" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="D34" t="s">
+      <c r="D34" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="E34">
+      <c r="E34" s="1">
         <v>1</v>
       </c>
       <c r="F34" t="s">
@@ -6542,16 +6654,16 @@
       <c r="A35" t="s">
         <v>170</v>
       </c>
-      <c r="B35" t="s">
+      <c r="B35" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="C35" t="s">
+      <c r="C35" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="D35" t="s">
+      <c r="D35" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="E35">
+      <c r="E35" s="1">
         <v>3</v>
       </c>
       <c r="F35" t="s">
@@ -6562,16 +6674,16 @@
       <c r="A36" t="s">
         <v>175</v>
       </c>
-      <c r="B36" t="s">
+      <c r="B36" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="C36" t="s">
+      <c r="C36" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="D36" t="s">
+      <c r="D36" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="E36">
+      <c r="E36" s="1">
         <v>1</v>
       </c>
       <c r="F36" t="s">
@@ -6582,16 +6694,16 @@
       <c r="A37" t="s">
         <v>180</v>
       </c>
-      <c r="B37" t="s">
+      <c r="B37" s="1" t="s">
         <v>181</v>
       </c>
-      <c r="C37" t="s">
+      <c r="C37" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="D37" t="s">
+      <c r="D37" s="1" t="s">
         <v>183</v>
       </c>
-      <c r="E37">
+      <c r="E37" s="1">
         <v>2</v>
       </c>
       <c r="F37" t="s">
@@ -6602,16 +6714,16 @@
       <c r="A38" t="s">
         <v>185</v>
       </c>
-      <c r="B38" t="s">
+      <c r="B38" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="C38" t="s">
+      <c r="C38" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="D38" t="s">
+      <c r="D38" s="1" t="s">
         <v>188</v>
       </c>
-      <c r="E38">
+      <c r="E38" s="1">
         <v>3</v>
       </c>
       <c r="F38" t="s">
@@ -6622,16 +6734,16 @@
       <c r="A39" t="s">
         <v>190</v>
       </c>
-      <c r="B39" t="s">
+      <c r="B39" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="C39" t="s">
+      <c r="C39" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="D39" t="s">
+      <c r="D39" s="1" t="s">
         <v>193</v>
       </c>
-      <c r="E39">
+      <c r="E39" s="1">
         <v>2</v>
       </c>
       <c r="F39" t="s">
@@ -6642,16 +6754,16 @@
       <c r="A40" t="s">
         <v>195</v>
       </c>
-      <c r="B40" t="s">
+      <c r="B40" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="C40" t="s">
+      <c r="C40" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="D40" t="s">
+      <c r="D40" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="E40">
+      <c r="E40" s="1">
         <v>1</v>
       </c>
       <c r="F40" t="s">
@@ -6662,16 +6774,16 @@
       <c r="A41" t="s">
         <v>200</v>
       </c>
-      <c r="B41" t="s">
+      <c r="B41" s="1" t="s">
         <v>201</v>
       </c>
-      <c r="C41" t="s">
+      <c r="C41" s="1" t="s">
         <v>202</v>
       </c>
-      <c r="D41" t="s">
+      <c r="D41" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="E41">
+      <c r="E41" s="1">
         <v>3</v>
       </c>
       <c r="F41" t="s">
@@ -6682,16 +6794,16 @@
       <c r="A42" t="s">
         <v>205</v>
       </c>
-      <c r="B42" t="s">
+      <c r="B42" s="1" t="s">
         <v>206</v>
       </c>
-      <c r="C42" t="s">
+      <c r="C42" s="1" t="s">
         <v>207</v>
       </c>
-      <c r="D42" t="s">
+      <c r="D42" s="1" t="s">
         <v>208</v>
       </c>
-      <c r="E42">
+      <c r="E42" s="1">
         <v>2</v>
       </c>
       <c r="F42" t="s">
@@ -6702,16 +6814,16 @@
       <c r="A43" t="s">
         <v>210</v>
       </c>
-      <c r="B43" t="s">
+      <c r="B43" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="C43" t="s">
+      <c r="C43" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="D43" t="s">
+      <c r="D43" s="1" t="s">
         <v>213</v>
       </c>
-      <c r="E43">
+      <c r="E43" s="1">
         <v>2</v>
       </c>
       <c r="F43" t="s">
@@ -6722,16 +6834,16 @@
       <c r="A44" t="s">
         <v>215</v>
       </c>
-      <c r="B44" t="s">
+      <c r="B44" s="1" t="s">
         <v>216</v>
       </c>
-      <c r="C44" t="s">
+      <c r="C44" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="D44" t="s">
+      <c r="D44" s="1" t="s">
         <v>218</v>
       </c>
-      <c r="E44">
+      <c r="E44" s="1">
         <v>1</v>
       </c>
       <c r="F44" t="s">
@@ -6742,16 +6854,16 @@
       <c r="A45" t="s">
         <v>220</v>
       </c>
-      <c r="B45" t="s">
+      <c r="B45" s="1" t="s">
         <v>221</v>
       </c>
-      <c r="C45" t="s">
+      <c r="C45" s="1" t="s">
         <v>222</v>
       </c>
-      <c r="D45" t="s">
+      <c r="D45" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="E45">
+      <c r="E45" s="1">
         <v>2</v>
       </c>
       <c r="F45" t="s">
@@ -6762,16 +6874,16 @@
       <c r="A46" t="s">
         <v>225</v>
       </c>
-      <c r="B46" t="s">
+      <c r="B46" s="1" t="s">
         <v>226</v>
       </c>
-      <c r="C46" t="s">
+      <c r="C46" s="1" t="s">
         <v>227</v>
       </c>
-      <c r="D46" t="s">
+      <c r="D46" s="1" t="s">
         <v>229</v>
       </c>
-      <c r="E46">
+      <c r="E46" s="1">
         <v>3</v>
       </c>
       <c r="F46" t="s">
@@ -6782,16 +6894,16 @@
       <c r="A47" t="s">
         <v>230</v>
       </c>
-      <c r="B47" t="s">
+      <c r="B47" s="1" t="s">
         <v>231</v>
       </c>
-      <c r="C47" t="s">
+      <c r="C47" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="D47" t="s">
+      <c r="D47" s="1" t="s">
         <v>233</v>
       </c>
-      <c r="E47">
+      <c r="E47" s="1">
         <v>3</v>
       </c>
       <c r="F47" t="s">
@@ -6802,16 +6914,16 @@
       <c r="A48" t="s">
         <v>235</v>
       </c>
-      <c r="B48" t="s">
+      <c r="B48" s="1" t="s">
         <v>236</v>
       </c>
-      <c r="C48" t="s">
+      <c r="C48" s="1" t="s">
         <v>237</v>
       </c>
-      <c r="D48" t="s">
+      <c r="D48" s="1" t="s">
         <v>238</v>
       </c>
-      <c r="E48">
+      <c r="E48" s="1">
         <v>2</v>
       </c>
       <c r="F48" t="s">
@@ -6822,16 +6934,16 @@
       <c r="A49" t="s">
         <v>240</v>
       </c>
-      <c r="B49" t="s">
+      <c r="B49" s="1" t="s">
         <v>241</v>
       </c>
-      <c r="C49" t="s">
+      <c r="C49" s="1" t="s">
         <v>242</v>
       </c>
-      <c r="D49" t="s">
+      <c r="D49" s="1" t="s">
         <v>243</v>
       </c>
-      <c r="E49">
+      <c r="E49" s="1">
         <v>1</v>
       </c>
       <c r="F49" t="s">
@@ -6842,16 +6954,16 @@
       <c r="A50" t="s">
         <v>245</v>
       </c>
-      <c r="B50" t="s">
+      <c r="B50" s="1" t="s">
         <v>246</v>
       </c>
-      <c r="C50" t="s">
+      <c r="C50" s="1" t="s">
         <v>247</v>
       </c>
-      <c r="D50" t="s">
+      <c r="D50" s="1" t="s">
         <v>248</v>
       </c>
-      <c r="E50">
+      <c r="E50" s="1">
         <v>1</v>
       </c>
       <c r="F50" t="s">
@@ -6862,16 +6974,16 @@
       <c r="A51" t="s">
         <v>250</v>
       </c>
-      <c r="B51" t="s">
+      <c r="B51" s="1" t="s">
         <v>251</v>
       </c>
-      <c r="C51" t="s">
+      <c r="C51" s="1" t="s">
         <v>252</v>
       </c>
-      <c r="D51" t="s">
+      <c r="D51" s="1" t="s">
         <v>253</v>
       </c>
-      <c r="E51">
+      <c r="E51" s="1">
         <v>1</v>
       </c>
       <c r="F51" t="s">
@@ -6882,16 +6994,16 @@
       <c r="A52" t="s">
         <v>255</v>
       </c>
-      <c r="B52" t="s">
+      <c r="B52" s="1" t="s">
         <v>256</v>
       </c>
-      <c r="C52" t="s">
+      <c r="C52" s="1" t="s">
         <v>257</v>
       </c>
-      <c r="D52" t="s">
+      <c r="D52" s="1" t="s">
         <v>258</v>
       </c>
-      <c r="E52">
+      <c r="E52" s="1">
         <v>3</v>
       </c>
       <c r="F52" t="s">
@@ -6902,16 +7014,16 @@
       <c r="A53" t="s">
         <v>260</v>
       </c>
-      <c r="B53" t="s">
+      <c r="B53" s="1" t="s">
         <v>261</v>
       </c>
-      <c r="C53" t="s">
+      <c r="C53" s="1" t="s">
         <v>262</v>
       </c>
-      <c r="D53" t="s">
+      <c r="D53" s="1" t="s">
         <v>263</v>
       </c>
-      <c r="E53">
+      <c r="E53" s="1">
         <v>1</v>
       </c>
       <c r="F53" t="s">
@@ -6922,16 +7034,16 @@
       <c r="A54" t="s">
         <v>265</v>
       </c>
-      <c r="B54" t="s">
+      <c r="B54" s="1" t="s">
         <v>266</v>
       </c>
-      <c r="C54" t="s">
+      <c r="C54" s="1" t="s">
         <v>267</v>
       </c>
-      <c r="D54" t="s">
+      <c r="D54" s="1" t="s">
         <v>268</v>
       </c>
-      <c r="E54">
+      <c r="E54" s="1">
         <v>1</v>
       </c>
       <c r="F54" t="s">
@@ -6942,16 +7054,16 @@
       <c r="A55" t="s">
         <v>270</v>
       </c>
-      <c r="B55" t="s">
+      <c r="B55" s="1" t="s">
         <v>271</v>
       </c>
-      <c r="C55" t="s">
+      <c r="C55" s="1" t="s">
         <v>272</v>
       </c>
-      <c r="D55" t="s">
+      <c r="D55" s="1" t="s">
         <v>273</v>
       </c>
-      <c r="E55">
+      <c r="E55" s="1">
         <v>2</v>
       </c>
       <c r="F55" t="s">
@@ -6962,16 +7074,16 @@
       <c r="A56" t="s">
         <v>275</v>
       </c>
-      <c r="B56" t="s">
+      <c r="B56" s="1" t="s">
         <v>276</v>
       </c>
-      <c r="C56" t="s">
+      <c r="C56" s="1" t="s">
         <v>277</v>
       </c>
-      <c r="D56" t="s">
+      <c r="D56" s="1" t="s">
         <v>278</v>
       </c>
-      <c r="E56">
+      <c r="E56" s="1">
         <v>1</v>
       </c>
       <c r="F56" t="s">
@@ -6982,16 +7094,16 @@
       <c r="A57" t="s">
         <v>280</v>
       </c>
-      <c r="B57" t="s">
+      <c r="B57" s="1" t="s">
         <v>281</v>
       </c>
-      <c r="C57" t="s">
+      <c r="C57" s="1" t="s">
         <v>282</v>
       </c>
-      <c r="D57" t="s">
+      <c r="D57" s="1" t="s">
         <v>283</v>
       </c>
-      <c r="E57">
+      <c r="E57" s="1">
         <v>3</v>
       </c>
       <c r="F57" t="s">
@@ -7002,16 +7114,16 @@
       <c r="A58" t="s">
         <v>285</v>
       </c>
-      <c r="B58" t="s">
+      <c r="B58" s="1" t="s">
         <v>286</v>
       </c>
-      <c r="C58" t="s">
+      <c r="C58" s="1" t="s">
         <v>287</v>
       </c>
-      <c r="D58" t="s">
+      <c r="D58" s="1" t="s">
         <v>288</v>
       </c>
-      <c r="E58">
+      <c r="E58" s="1">
         <v>1</v>
       </c>
       <c r="F58" t="s">
@@ -7022,16 +7134,16 @@
       <c r="A59" t="s">
         <v>290</v>
       </c>
-      <c r="B59" t="s">
+      <c r="B59" s="1" t="s">
         <v>291</v>
       </c>
-      <c r="C59" t="s">
+      <c r="C59" s="1" t="s">
         <v>292</v>
       </c>
-      <c r="D59" t="s">
+      <c r="D59" s="1" t="s">
         <v>293</v>
       </c>
-      <c r="E59">
+      <c r="E59" s="1">
         <v>3</v>
       </c>
       <c r="F59" t="s">
@@ -7042,16 +7154,16 @@
       <c r="A60" t="s">
         <v>295</v>
       </c>
-      <c r="B60" t="s">
+      <c r="B60" s="1" t="s">
         <v>296</v>
       </c>
-      <c r="C60" t="s">
+      <c r="C60" s="1" t="s">
         <v>297</v>
       </c>
-      <c r="D60" t="s">
+      <c r="D60" s="1" t="s">
         <v>298</v>
       </c>
-      <c r="E60">
+      <c r="E60" s="1">
         <v>3</v>
       </c>
       <c r="F60" t="s">
@@ -7062,20 +7174,45 @@
       <c r="A61" t="s">
         <v>300</v>
       </c>
-      <c r="B61" t="s">
+      <c r="B61" s="1" t="s">
         <v>301</v>
       </c>
-      <c r="C61" t="s">
+      <c r="C61" s="1" t="s">
         <v>302</v>
       </c>
-      <c r="D61" t="s">
+      <c r="D61" s="1" t="s">
         <v>303</v>
       </c>
-      <c r="E61">
+      <c r="E61" s="1">
         <v>3</v>
       </c>
       <c r="F61" t="s">
         <v>304</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6">
+      <c r="A62" t="s">
+        <v>305</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="D62" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="E62" s="1">
+        <v>1</v>
+      </c>
+      <c r="F62" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6">
+      <c r="A63">
+        <v>62</v>
       </c>
     </row>
   </sheetData>
